--- a/admin/Menu.xlsx
+++ b/admin/Menu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\cafe_app\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1702,5 +1702,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>